--- a/programas/Projects/5_DecisionTree_2/logBBVA.MC.xlsx
+++ b/programas/Projects/5_DecisionTree_2/logBBVA.MC.xlsx
@@ -12,6 +12,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data8" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data16" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data20" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data22" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data24" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data26" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +439,283 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -573,42 +860,225 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Senal</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Objetivo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ExitReason</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
